--- a/テスト仕様書/演習2.xlsx
+++ b/テスト仕様書/演習2.xlsx
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1458,11 +1458,33 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="H4:H7"/>
@@ -1477,33 +1499,11 @@
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="I8:I11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書/演習2.xlsx
+++ b/テスト仕様書/演習2.xlsx
@@ -730,10 +730,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1036,19 +1036,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
@@ -1083,27 +1083,27 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1112,15 +1112,15 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1135,15 +1135,15 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="K6" s="8" t="s">
         <v>34</v>
       </c>
@@ -1152,15 +1152,15 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="K7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1175,27 +1175,27 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="K8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1210,30 +1210,30 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
       <c r="K10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1242,15 +1242,15 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="4" t="s">
         <v>68</v>
       </c>
@@ -1265,27 +1265,27 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
@@ -1300,15 +1300,15 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
@@ -1323,150 +1323,163 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="13" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-    </row>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="13" customHeight="1"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
@@ -1483,27 +1496,15 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,5 +1624,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/テスト仕様書/演習2.xlsx
+++ b/テスト仕様書/演習2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace\ex-intermediate\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\workspace2\ex-intermediate\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>製作者</t>
     <rPh sb="0" eb="3">
@@ -295,97 +295,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・ホテル検索画面が表示されていること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・「ホテル検索デシジョンテーブル」のTC1の入力を実行し、「検索」をクリックする</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ホテル検索デシジョンテーブル」のTC1の期待される結果になっていること</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・「ホテル検索デシジョンテーブル」のTC2の入力を実行し、「検索」をクリックする</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ホテル検索デシジョンテーブル」のTC2の期待される結果になっていること</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・「ホテル検索デシジョンテーブル」のTC3の入力を実行し、「検索」をクリックする</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ホテル検索デシジョンテーブル」のTC3の期待される結果になっていること</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ホテル検索デシジョンテーブル</t>
     <rPh sb="3" eb="5">
       <t>ケンサク</t>
@@ -446,28 +355,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>数字以外の文字を入力(異常系)</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>期待される結果</t>
     <rPh sb="0" eb="2">
       <t>キタイ</t>
@@ -482,14 +369,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -507,10 +386,6 @@
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -614,6 +489,432 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数字以外の文字を含む入力(異常系)</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10000を入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9999を入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1を入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0を入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01を入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC1の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC1の期待される結果になること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC2の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC3の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC2の期待される結果になること</t>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3件の検索結果が表示される</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC4の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1件の検索結果が表示される</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC5の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0件の検索結果が表示される</t>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC6の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ホテル検索デシジョンテーブル」のTC6の期待される結果になっていること</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ホテル検索デシジョンテーブル」のTC7の期待される結果になっていること</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ホテル検索デシジョンテーブル」のTC8の期待される結果になっていること</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC7の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「ホテル検索デシジョンテーブル」のTC8の入力内容を実行し、「検索」をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル検索結果が料金の昇順で表示されること</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル検索結果画面が料金の昇順で表示されるか</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -730,10 +1031,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1035,25 +1336,25 @@
     <col min="11" max="11" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:19">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1082,388 +1383,1030 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
       <c r="K4" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+    <row r="5" spans="1:19">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
       <c r="K6" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="K7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="K15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="13" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="K16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="9" t="s">
+      <c r="O16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="K18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="13" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" ht="13" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="13" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="D24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" ht="13" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="13" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="13" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="C36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="13" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="13" customHeight="1"/>
+      <c r="D40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
+  <mergeCells count="100">
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
@@ -1475,36 +2418,11 @@
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="I8:I11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,102 +2441,102 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/テスト仕様書/演習2.xlsx
+++ b/テスト仕様書/演習2.xlsx
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C19"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2323,12 +2323,84 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="G32:G35"/>
     <mergeCell ref="H32:H35"/>
@@ -2345,84 +2417,12 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
